--- a/4. 교육/ChatGPT 교육/ChatGPT 소모임 관련/도정지식/3. 신청사 인근식당(220610).xlsx
+++ b/4. 교육/ChatGPT 교육/ChatGPT 소모임 관련/도정지식/3. 신청사 인근식당(220610).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\4. 교육\ChatGPT 교육\ChatGPT 소모임 관련\도정지식\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="161">
   <si>
     <t>보돌미역</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,10 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>카페거리근처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,10 +237,6 @@
     <t>031-215-4007</t>
   </si>
   <si>
-    <t>엘포트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>티엔바오</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,10 +248,6 @@
     <t>0507-1352-5735</t>
   </si>
   <si>
-    <t>호수공원 근처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>선비손칼국수 광교본점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,10 +278,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>엑포트몰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>남도예찬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,200 +286,172 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>오늘의초밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지아니스나폴리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파스타, 피자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오 이탈리안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0507-1449-6161</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>031-214-9076</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>031-217-2713</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0507-1362-8576</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0507-1404-9468</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0507-1469-0420</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0507-1401-0109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼백돈 돈가츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈가쓰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0507-1313-7149</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후라토식당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>규카츠, 스테키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0507-1482-7090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카츠오모이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈가스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0507-1352-6396</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도꼬돈부리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈부리, 돈가스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0507-1342-4525</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌀국수, 팟타이 등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0507-1303-9422</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오와스시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초밥, 롤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>031-213-5551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드스퀘어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이여사나무김밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김밥 등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>031-214-2177</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훗스테이크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">등심스테이크, 부채살스테이크  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0507-1366-0256</t>
+  </si>
+  <si>
     <t>아브뉴프랑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>거궁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘의초밥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초밥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지아니스나폴리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파스타, 피자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오 이탈리안</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0507-1449-6161</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>031-214-9076</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>031-217-2713</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0507-1362-8576</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>031-215-4007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0507-1404-9468</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0507-1469-0420</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0507-1401-0109</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼백돈 돈가츠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈가쓰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0507-1313-7149</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후라토식당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>규카츠, 스테키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0507-1482-7090</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아비뉴프랑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카츠오모이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈가스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0507-1352-6396</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광교중흥S클래스 상가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도꼬돈부리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈부리, 돈가스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0507-1342-4525</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반탄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쌀국수, 팟타이 등</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0507-1303-9422</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카페거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오와스시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초밥, 롤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>031-213-5551</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월드스퀘어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이여사나무김밥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김밥 등</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>031-214-2177</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광교1동행정복지센터 근처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>훗스테이크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">등심스테이크, 부채살스테이크  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0507-1366-0256</t>
+    <t>연안식당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬막비빔밥, 해물뚝배기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>031-211-0218</t>
   </si>
   <si>
     <t>아브뉴프랑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연안식당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬막비빔밥, 해물뚝배기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>031-211-0218</t>
-  </si>
-  <si>
-    <t>아브뉴프랑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>한상차림 코다리명가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -507,10 +463,6 @@
     <t>031-211-0333</t>
   </si>
   <si>
-    <t>힐스테이트광교 상가 2층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>37.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -522,10 +474,6 @@
     <t>031-214-3705</t>
   </si>
   <si>
-    <t>힐스테이트광교 상가 1층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>더브라운</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -537,10 +485,6 @@
     <t>0507-1301-1806</t>
   </si>
   <si>
-    <t>광교엘포트 지하1층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>고양이부엌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -552,10 +496,6 @@
     <t>031-213-8876</t>
   </si>
   <si>
-    <t>광교푸르지오월드마크 1층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>미스터코다리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -568,10 +508,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>광교카페거리근처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>어반테라스 알찬밥상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -584,10 +520,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>롯데아울렛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경기 수원시 영통구 센트럴파크로127번길 80-5</t>
   </si>
   <si>
@@ -647,6 +579,253 @@
   </si>
   <si>
     <t>경기 수원시 영통구 센트럴파크로127번길 141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 수원시 영통구 센트럴타운로 85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 수원시 영통구 광교중앙로 145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수원시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영통구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>광교중앙로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 170</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수원시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영통구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>광교중앙로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 180 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 105</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 수원시 영통구 광교중앙로 145 엘포트몰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 수원시 영통구 센트럴타운로 85 광교아브뉴프랑 1층 아띠존 C111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 수원시 영통구 센트럴파크로127번길 18 1층 오늘의초밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 수원시 영통구 광교호수공원로 277</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 수원시 영통구 센트럴파크로127번길 74</t>
+  </si>
+  <si>
+    <t>경기 수원시 영통구 에듀타운로 108 경동해피리움오피스텔 116호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 수원시 영통구 센트럴파크로 6 힐스테이트 광교 상가 204호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 수원시 영통구 광교중앙로 145 엘포트몰 지하1층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 수원시 영통구 센트럴타운로 107 푸르지오월드스퀘어 1층64호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 수원시 영통구 센트럴파크로127번길 125-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 수원시 영통구 도청로 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,7 +833,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,6 +865,19 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -709,7 +901,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,6 +918,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1008,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1034,7 +1229,7 @@
         <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1048,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1062,7 +1257,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1076,7 +1271,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1090,7 +1285,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1104,7 +1299,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1118,7 +1313,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1132,7 +1327,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1146,7 +1341,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1160,7 +1355,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1174,7 +1369,7 @@
         <v>28</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1188,441 +1383,427 @@
         <v>34</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="D20" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="D21" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>61</v>
+      <c r="D22" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>36</v>
+        <v>79</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>73</v>
+        <v>86</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>94</v>
+      <c r="D32" s="6" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="D39" s="3" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>132</v>
+        <v>121</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
